--- a/output/rsa2019.xlsx
+++ b/output/rsa2019.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dharmesh/gender-avenger/output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="1382">
   <si>
     <t>first_name</t>
   </si>
@@ -4158,28 +4170,32 @@
   </si>
   <si>
     <t>University of Maryland University College</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -4194,26 +4210,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4501,20 +4531,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F424"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="F418" sqref="F418"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4531,8 +4557,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -4551,8 +4577,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -4571,8 +4597,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -4591,8 +4617,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -4611,8 +4637,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -4628,11 +4654,11 @@
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -4651,8 +4677,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -4671,8 +4697,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -4691,8 +4717,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -4701,7 +4727,6 @@
       <c r="C10" t="s">
         <v>39</v>
       </c>
-      <c r="D10" t="s"/>
       <c r="E10" t="s">
         <v>40</v>
       </c>
@@ -4709,8 +4734,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -4729,8 +4754,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -4739,16 +4764,15 @@
       <c r="C12" t="s">
         <v>46</v>
       </c>
-      <c r="D12" t="s"/>
       <c r="E12" t="s">
         <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -4767,8 +4791,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -4784,11 +4808,11 @@
         <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -4807,8 +4831,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -4827,8 +4851,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -4847,8 +4871,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -4857,7 +4881,6 @@
       <c r="C18" t="s">
         <v>69</v>
       </c>
-      <c r="D18" t="s"/>
       <c r="E18" t="s">
         <v>70</v>
       </c>
@@ -4865,8 +4888,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -4885,8 +4908,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -4902,11 +4925,11 @@
         <v>78</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -4925,8 +4948,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -4945,8 +4968,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -4965,8 +4988,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
@@ -4982,11 +5005,11 @@
         <v>93</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
@@ -5005,8 +5028,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
@@ -5025,8 +5048,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
@@ -5045,8 +5068,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
@@ -5065,8 +5088,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
@@ -5085,8 +5108,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
@@ -5105,8 +5128,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
@@ -5125,8 +5148,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
@@ -5145,8 +5168,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
@@ -5165,8 +5188,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
@@ -5185,8 +5208,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
@@ -5205,8 +5228,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
@@ -5215,16 +5238,15 @@
       <c r="C36" t="s">
         <v>137</v>
       </c>
-      <c r="D36" t="s"/>
       <c r="E36" t="s">
         <v>138</v>
       </c>
       <c r="F36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
@@ -5243,8 +5265,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
@@ -5263,8 +5285,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
@@ -5283,8 +5305,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
@@ -5303,8 +5325,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
@@ -5320,11 +5342,11 @@
         <v>157</v>
       </c>
       <c r="F41" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
@@ -5343,8 +5365,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
@@ -5363,8 +5385,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
@@ -5383,8 +5405,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
@@ -5393,7 +5415,6 @@
       <c r="C45" t="s">
         <v>168</v>
       </c>
-      <c r="D45" t="s"/>
       <c r="E45" t="s">
         <v>169</v>
       </c>
@@ -5401,8 +5422,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
@@ -5421,8 +5442,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
@@ -5441,8 +5462,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
@@ -5451,7 +5472,6 @@
       <c r="C48" t="s">
         <v>38</v>
       </c>
-      <c r="D48" t="s"/>
       <c r="E48" t="s">
         <v>179</v>
       </c>
@@ -5459,8 +5479,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
@@ -5479,8 +5499,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
@@ -5499,8 +5519,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
@@ -5509,7 +5529,6 @@
       <c r="C51" t="s">
         <v>188</v>
       </c>
-      <c r="D51" t="s"/>
       <c r="E51" t="s">
         <v>189</v>
       </c>
@@ -5517,8 +5536,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
@@ -5534,11 +5553,11 @@
         <v>192</v>
       </c>
       <c r="F52" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
@@ -5557,8 +5576,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
@@ -5577,8 +5596,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
@@ -5594,11 +5613,11 @@
         <v>205</v>
       </c>
       <c r="F55" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
@@ -5617,8 +5636,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
@@ -5637,8 +5656,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
@@ -5657,8 +5676,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
@@ -5677,8 +5696,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
@@ -5697,8 +5716,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
@@ -5714,11 +5733,11 @@
         <v>229</v>
       </c>
       <c r="F61" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
@@ -5737,8 +5756,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
@@ -5757,8 +5776,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
@@ -5777,8 +5796,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
@@ -5797,8 +5816,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
@@ -5807,16 +5826,15 @@
       <c r="C66" t="s">
         <v>244</v>
       </c>
-      <c r="D66" t="s"/>
       <c r="E66" t="s">
         <v>245</v>
       </c>
       <c r="F66" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
@@ -5835,8 +5853,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
@@ -5855,8 +5873,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
@@ -5865,7 +5883,6 @@
       <c r="C69" t="s">
         <v>254</v>
       </c>
-      <c r="D69" t="s"/>
       <c r="E69" t="s">
         <v>255</v>
       </c>
@@ -5873,8 +5890,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
@@ -5893,8 +5910,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
@@ -5913,8 +5930,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
@@ -5933,8 +5950,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
@@ -5943,7 +5960,6 @@
       <c r="C73" t="s">
         <v>265</v>
       </c>
-      <c r="D73" t="s"/>
       <c r="E73" t="s">
         <v>266</v>
       </c>
@@ -5951,8 +5967,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
@@ -5971,8 +5987,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
@@ -5991,8 +6007,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
@@ -6011,8 +6027,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
@@ -6031,8 +6047,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
@@ -6051,8 +6067,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
@@ -6071,8 +6087,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
@@ -6091,8 +6107,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
@@ -6111,8 +6127,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
@@ -6131,8 +6147,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
@@ -6141,7 +6157,6 @@
       <c r="C83" t="s">
         <v>300</v>
       </c>
-      <c r="D83" t="s"/>
       <c r="E83" t="s">
         <v>301</v>
       </c>
@@ -6149,8 +6164,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
@@ -6169,8 +6184,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
@@ -6189,8 +6204,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
@@ -6206,11 +6221,11 @@
         <v>312</v>
       </c>
       <c r="F86" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
@@ -6229,8 +6244,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
@@ -6249,8 +6264,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
@@ -6259,7 +6274,6 @@
       <c r="C89" t="s">
         <v>323</v>
       </c>
-      <c r="D89" t="s"/>
       <c r="E89" t="s">
         <v>324</v>
       </c>
@@ -6267,8 +6281,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
@@ -6287,8 +6301,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
@@ -6304,11 +6318,11 @@
         <v>330</v>
       </c>
       <c r="F91" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
@@ -6327,8 +6341,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
@@ -6347,8 +6361,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
@@ -6367,8 +6381,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
@@ -6387,8 +6401,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
@@ -6404,11 +6418,11 @@
         <v>347</v>
       </c>
       <c r="F96" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
@@ -6427,8 +6441,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
@@ -6447,8 +6461,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
@@ -6467,8 +6481,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
@@ -6487,8 +6501,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
@@ -6507,8 +6521,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
@@ -6527,8 +6541,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
@@ -6547,8 +6561,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="1" t="n">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
@@ -6567,8 +6581,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="1" t="n">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
@@ -6577,7 +6591,6 @@
       <c r="C105" t="s">
         <v>375</v>
       </c>
-      <c r="D105" t="s"/>
       <c r="E105" t="s">
         <v>376</v>
       </c>
@@ -6585,8 +6598,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="1" t="n">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
@@ -6605,8 +6618,8 @@
         <v>313</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="1" t="n">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
@@ -6625,8 +6638,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="1" t="n">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
@@ -6645,8 +6658,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="1" t="n">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
@@ -6665,8 +6678,8 @@
         <v>313</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="1" t="n">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
@@ -6678,13 +6691,12 @@
       <c r="D110" t="s">
         <v>393</v>
       </c>
-      <c r="E110" t="s"/>
       <c r="F110" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="1" t="n">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
@@ -6703,8 +6715,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="1" t="n">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
@@ -6723,8 +6735,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="1" t="n">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
@@ -6743,8 +6755,8 @@
         <v>193</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="1" t="n">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
@@ -6753,7 +6765,6 @@
       <c r="C114" t="s">
         <v>405</v>
       </c>
-      <c r="D114" t="s"/>
       <c r="E114" t="s">
         <v>406</v>
       </c>
@@ -6761,8 +6772,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="1" t="n">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
@@ -6781,8 +6792,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="1" t="n">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
@@ -6798,11 +6809,11 @@
         <v>414</v>
       </c>
       <c r="F116" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
@@ -6811,7 +6822,6 @@
       <c r="C117" t="s">
         <v>416</v>
       </c>
-      <c r="D117" t="s"/>
       <c r="E117" t="s">
         <v>417</v>
       </c>
@@ -6819,8 +6829,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="1" t="n">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
@@ -6839,8 +6849,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="1" t="n">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
@@ -6859,8 +6869,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="1" t="n">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
@@ -6879,8 +6889,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="1" t="n">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
@@ -6899,8 +6909,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="1" t="n">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
@@ -6919,8 +6929,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="1" t="n">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
@@ -6939,8 +6949,8 @@
         <v>313</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="1" t="n">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
@@ -6959,8 +6969,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="1" t="n">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
@@ -6979,8 +6989,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="1" t="n">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
@@ -6999,8 +7009,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="1" t="n">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
@@ -7019,8 +7029,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="1" t="n">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
@@ -7039,8 +7049,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="1" t="n">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
@@ -7059,8 +7069,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="1" t="n">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
@@ -7079,8 +7089,8 @@
         <v>313</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="1" t="n">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
@@ -7099,8 +7109,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="1" t="n">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
@@ -7119,8 +7129,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="1" t="n">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
@@ -7139,8 +7149,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="1" t="n">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
@@ -7149,7 +7159,6 @@
       <c r="C134" t="s">
         <v>476</v>
       </c>
-      <c r="D134" t="s"/>
       <c r="E134" t="s">
         <v>477</v>
       </c>
@@ -7157,8 +7166,8 @@
         <v>478</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="1" t="n">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
@@ -7177,8 +7186,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="1" t="n">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
@@ -7197,8 +7206,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="1" t="n">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
@@ -7217,8 +7226,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
-      <c r="A138" s="1" t="n">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
@@ -7237,8 +7246,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
-      <c r="A139" s="1" t="n">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
@@ -7257,8 +7266,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="1" t="n">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
@@ -7277,8 +7286,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="1" t="n">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
@@ -7297,8 +7306,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
-      <c r="A142" s="1" t="n">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
@@ -7317,8 +7326,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
-      <c r="A143" s="1" t="n">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
@@ -7337,8 +7346,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="1" t="n">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
@@ -7357,8 +7366,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="1" t="n">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
@@ -7377,8 +7386,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
-      <c r="A146" s="1" t="n">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
@@ -7397,8 +7406,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
-      <c r="A147" s="1" t="n">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
@@ -7417,8 +7426,8 @@
         <v>193</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
-      <c r="A148" s="1" t="n">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
@@ -7437,8 +7446,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
-      <c r="A149" s="1" t="n">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
@@ -7457,8 +7466,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
-      <c r="A150" s="1" t="n">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
@@ -7477,8 +7486,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
-      <c r="A151" s="1" t="n">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
@@ -7497,8 +7506,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
-      <c r="A152" s="1" t="n">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
@@ -7517,8 +7526,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
-      <c r="A153" s="1" t="n">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
@@ -7537,8 +7546,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
-      <c r="A154" s="1" t="n">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" t="s">
@@ -7557,8 +7566,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
-      <c r="A155" s="1" t="n">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" t="s">
@@ -7577,8 +7586,8 @@
         <v>313</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
-      <c r="A156" s="1" t="n">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" t="s">
@@ -7597,8 +7606,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
-      <c r="A157" s="1" t="n">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
@@ -7617,8 +7626,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
-      <c r="A158" s="1" t="n">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" t="s">
@@ -7637,8 +7646,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
-      <c r="A159" s="1" t="n">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" t="s">
@@ -7654,11 +7663,11 @@
         <v>569</v>
       </c>
       <c r="F159" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" t="s">
@@ -7677,8 +7686,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
-      <c r="A161" s="1" t="n">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161" t="s">
@@ -7697,8 +7706,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
-      <c r="A162" s="1" t="n">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162" t="s">
@@ -7717,8 +7726,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
-      <c r="A163" s="1" t="n">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163" t="s">
@@ -7737,8 +7746,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
-      <c r="A164" s="1" t="n">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164" t="s">
@@ -7747,7 +7756,6 @@
       <c r="C164" t="s">
         <v>582</v>
       </c>
-      <c r="D164" t="s"/>
       <c r="E164" t="s">
         <v>583</v>
       </c>
@@ -7755,8 +7763,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
-      <c r="A165" s="1" t="n">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165" t="s">
@@ -7775,8 +7783,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
-      <c r="A166" s="1" t="n">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166" t="s">
@@ -7792,11 +7800,11 @@
         <v>565</v>
       </c>
       <c r="F166" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167" t="s">
@@ -7815,8 +7823,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
-      <c r="A168" s="1" t="n">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168" t="s">
@@ -7825,7 +7833,6 @@
       <c r="C168" t="s">
         <v>593</v>
       </c>
-      <c r="D168" t="s"/>
       <c r="E168" t="s">
         <v>594</v>
       </c>
@@ -7833,8 +7840,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
-      <c r="A169" s="1" t="n">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169" t="s">
@@ -7853,8 +7860,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
-      <c r="A170" s="1" t="n">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170" t="s">
@@ -7873,8 +7880,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
-      <c r="A171" s="1" t="n">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171" t="s">
@@ -7893,8 +7900,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
-      <c r="A172" s="1" t="n">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172" t="s">
@@ -7913,8 +7920,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
-      <c r="A173" s="1" t="n">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173" t="s">
@@ -7933,8 +7940,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
-      <c r="A174" s="1" t="n">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174" t="s">
@@ -7953,8 +7960,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
-      <c r="A175" s="1" t="n">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175" t="s">
@@ -7973,8 +7980,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
-      <c r="A176" s="1" t="n">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176" t="s">
@@ -7993,8 +8000,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
-      <c r="A177" s="1" t="n">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177" t="s">
@@ -8013,8 +8020,8 @@
         <v>478</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
-      <c r="A178" s="1" t="n">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178" t="s">
@@ -8033,8 +8040,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
-      <c r="A179" s="1" t="n">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179" t="s">
@@ -8050,11 +8057,11 @@
         <v>628</v>
       </c>
       <c r="F179" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180" t="s">
@@ -8073,8 +8080,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
-      <c r="A181" s="1" t="n">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181" t="s">
@@ -8093,8 +8100,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
-      <c r="A182" s="1" t="n">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182" t="s">
@@ -8113,8 +8120,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
-      <c r="A183" s="1" t="n">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183" t="s">
@@ -8133,8 +8140,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
-      <c r="A184" s="1" t="n">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184" t="s">
@@ -8150,11 +8157,11 @@
         <v>645</v>
       </c>
       <c r="F184" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="A185" s="1" t="n">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185" t="s">
@@ -8170,11 +8177,11 @@
         <v>649</v>
       </c>
       <c r="F185" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
-      <c r="A186" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186" t="s">
@@ -8190,11 +8197,11 @@
         <v>428</v>
       </c>
       <c r="F186" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
-      <c r="A187" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187" t="s">
@@ -8213,8 +8220,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
-      <c r="A188" s="1" t="n">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188" t="s">
@@ -8233,8 +8240,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
-      <c r="A189" s="1" t="n">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189" t="s">
@@ -8253,8 +8260,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
-      <c r="A190" s="1" t="n">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190" t="s">
@@ -8273,8 +8280,8 @@
         <v>313</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
-      <c r="A191" s="1" t="n">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191" t="s">
@@ -8293,8 +8300,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
-      <c r="A192" s="1" t="n">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192" t="s">
@@ -8313,8 +8320,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
-      <c r="A193" s="1" t="n">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193" t="s">
@@ -8330,11 +8337,11 @@
         <v>677</v>
       </c>
       <c r="F193" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="A194" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194" t="s">
@@ -8353,8 +8360,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
-      <c r="A195" s="1" t="n">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195" t="s">
@@ -8373,8 +8380,8 @@
         <v>478</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
-      <c r="A196" s="1" t="n">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196" t="s">
@@ -8393,8 +8400,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
-      <c r="A197" s="1" t="n">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197" t="s">
@@ -8413,8 +8420,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
-      <c r="A198" s="1" t="n">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198" t="s">
@@ -8433,8 +8440,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
-      <c r="A199" s="1" t="n">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199" t="s">
@@ -8453,8 +8460,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
-      <c r="A200" s="1" t="n">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200" t="s">
@@ -8473,8 +8480,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
-      <c r="A201" s="1" t="n">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201" t="s">
@@ -8493,8 +8500,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
-      <c r="A202" s="1" t="n">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202" t="s">
@@ -8513,8 +8520,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
-      <c r="A203" s="1" t="n">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
       <c r="B203" t="s">
@@ -8533,8 +8540,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
-      <c r="A204" s="1" t="n">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
       <c r="B204" t="s">
@@ -8553,8 +8560,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
-      <c r="A205" s="1" t="n">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
       <c r="B205" t="s">
@@ -8573,8 +8580,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
-      <c r="A206" s="1" t="n">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
       <c r="B206" t="s">
@@ -8593,8 +8600,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
-      <c r="A207" s="1" t="n">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
       <c r="B207" t="s">
@@ -8613,8 +8620,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
-      <c r="A208" s="1" t="n">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
       <c r="B208" t="s">
@@ -8633,8 +8640,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
-      <c r="A209" s="1" t="n">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209" t="s">
@@ -8653,8 +8660,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
-      <c r="A210" s="1" t="n">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210" t="s">
@@ -8673,8 +8680,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
-      <c r="A211" s="1" t="n">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211" t="s">
@@ -8693,8 +8700,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
-      <c r="A212" s="1" t="n">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
       <c r="B212" t="s">
@@ -8713,8 +8720,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
-      <c r="A213" s="1" t="n">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
       <c r="B213" t="s">
@@ -8733,8 +8740,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
-      <c r="A214" s="1" t="n">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
       <c r="B214" t="s">
@@ -8753,8 +8760,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
-      <c r="A215" s="1" t="n">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
       <c r="B215" t="s">
@@ -8773,8 +8780,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
-      <c r="A216" s="1" t="n">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
       <c r="B216" t="s">
@@ -8793,8 +8800,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
-      <c r="A217" s="1" t="n">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
       <c r="B217" t="s">
@@ -8813,8 +8820,8 @@
         <v>478</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
-      <c r="A218" s="1" t="n">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
       <c r="B218" t="s">
@@ -8833,8 +8840,8 @@
         <v>478</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
-      <c r="A219" s="1" t="n">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
       <c r="B219" t="s">
@@ -8853,8 +8860,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="1" t="n">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
       <c r="B220" t="s">
@@ -8870,11 +8877,11 @@
         <v>760</v>
       </c>
       <c r="F220" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
       <c r="B221" t="s">
@@ -8893,8 +8900,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
-      <c r="A222" s="1" t="n">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
       <c r="B222" t="s">
@@ -8913,8 +8920,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
-      <c r="A223" s="1" t="n">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
       <c r="B223" t="s">
@@ -8930,11 +8937,11 @@
         <v>628</v>
       </c>
       <c r="F223" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
       <c r="B224" t="s">
@@ -8943,7 +8950,6 @@
       <c r="C224" t="s">
         <v>770</v>
       </c>
-      <c r="D224" t="s"/>
       <c r="E224" t="s">
         <v>771</v>
       </c>
@@ -8951,8 +8957,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
-      <c r="A225" s="1" t="n">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
       <c r="B225" t="s">
@@ -8971,8 +8977,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
-      <c r="A226" s="1" t="n">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
       <c r="B226" t="s">
@@ -8991,8 +8997,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
-      <c r="A227" s="1" t="n">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
       <c r="B227" t="s">
@@ -9011,8 +9017,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
-      <c r="A228" s="1" t="n">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
       <c r="B228" t="s">
@@ -9031,8 +9037,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
-      <c r="A229" s="1" t="n">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
       <c r="B229" t="s">
@@ -9051,8 +9057,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
-      <c r="A230" s="1" t="n">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
       <c r="B230" t="s">
@@ -9071,8 +9077,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
-      <c r="A231" s="1" t="n">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
       <c r="B231" t="s">
@@ -9091,8 +9097,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
-      <c r="A232" s="1" t="n">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
       <c r="B232" t="s">
@@ -9111,8 +9117,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
-      <c r="A233" s="1" t="n">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
       <c r="B233" t="s">
@@ -9131,8 +9137,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
-      <c r="A234" s="1" t="n">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
       <c r="B234" t="s">
@@ -9151,8 +9157,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
-      <c r="A235" s="1" t="n">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
       <c r="B235" t="s">
@@ -9171,8 +9177,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
-      <c r="A236" s="1" t="n">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
       <c r="B236" t="s">
@@ -9191,8 +9197,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
-      <c r="A237" s="1" t="n">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
       <c r="B237" t="s">
@@ -9211,8 +9217,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
-      <c r="A238" s="1" t="n">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
       <c r="B238" t="s">
@@ -9231,8 +9237,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
-      <c r="A239" s="1" t="n">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
       <c r="B239" t="s">
@@ -9251,8 +9257,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
-      <c r="A240" s="1" t="n">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
       <c r="B240" t="s">
@@ -9261,7 +9267,6 @@
       <c r="C240" t="s">
         <v>823</v>
       </c>
-      <c r="D240" t="s"/>
       <c r="E240" t="s">
         <v>824</v>
       </c>
@@ -9269,8 +9274,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
-      <c r="A241" s="1" t="n">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
       <c r="B241" t="s">
@@ -9289,8 +9294,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
-      <c r="A242" s="1" t="n">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
       <c r="B242" t="s">
@@ -9309,8 +9314,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
-      <c r="A243" s="1" t="n">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
       <c r="B243" t="s">
@@ -9329,8 +9334,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
-      <c r="A244" s="1" t="n">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
       <c r="B244" t="s">
@@ -9349,8 +9354,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
-      <c r="A245" s="1" t="n">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
       <c r="B245" t="s">
@@ -9369,8 +9374,8 @@
         <v>478</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
-      <c r="A246" s="1" t="n">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
       <c r="B246" t="s">
@@ -9389,8 +9394,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
-      <c r="A247" s="1" t="n">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
       <c r="B247" t="s">
@@ -9399,7 +9404,6 @@
       <c r="C247" t="s">
         <v>98</v>
       </c>
-      <c r="D247" t="s"/>
       <c r="E247" t="s">
         <v>844</v>
       </c>
@@ -9407,8 +9411,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
-      <c r="A248" s="1" t="n">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
       <c r="B248" t="s">
@@ -9427,8 +9431,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
-      <c r="A249" s="1" t="n">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
       <c r="B249" t="s">
@@ -9447,8 +9451,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
-      <c r="A250" s="1" t="n">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
       <c r="B250" t="s">
@@ -9457,7 +9461,6 @@
       <c r="C250" t="s">
         <v>852</v>
       </c>
-      <c r="D250" t="s"/>
       <c r="E250" t="s">
         <v>853</v>
       </c>
@@ -9465,8 +9468,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
-      <c r="A251" s="1" t="n">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
       <c r="B251" t="s">
@@ -9485,8 +9488,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
-      <c r="A252" s="1" t="n">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
       <c r="B252" t="s">
@@ -9505,8 +9508,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
-      <c r="A253" s="1" t="n">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
       <c r="B253" t="s">
@@ -9522,11 +9525,11 @@
         <v>865</v>
       </c>
       <c r="F253" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6">
-      <c r="A254" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
       <c r="B254" t="s">
@@ -9545,8 +9548,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
-      <c r="A255" s="1" t="n">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A255" s="1">
         <v>253</v>
       </c>
       <c r="B255" t="s">
@@ -9565,8 +9568,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
-      <c r="A256" s="1" t="n">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A256" s="1">
         <v>254</v>
       </c>
       <c r="B256" t="s">
@@ -9575,16 +9578,15 @@
       <c r="C256" t="s">
         <v>874</v>
       </c>
-      <c r="D256" t="s"/>
       <c r="E256" t="s">
         <v>875</v>
       </c>
       <c r="F256" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6">
-      <c r="A257" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A257" s="1">
         <v>255</v>
       </c>
       <c r="B257" t="s">
@@ -9603,8 +9605,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
-      <c r="A258" s="1" t="n">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
       <c r="B258" t="s">
@@ -9623,8 +9625,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
-      <c r="A259" s="1" t="n">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A259" s="1">
         <v>257</v>
       </c>
       <c r="B259" t="s">
@@ -9643,8 +9645,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
-      <c r="A260" s="1" t="n">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A260" s="1">
         <v>258</v>
       </c>
       <c r="B260" t="s">
@@ -9663,8 +9665,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
-      <c r="A261" s="1" t="n">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
         <v>259</v>
       </c>
       <c r="B261" t="s">
@@ -9683,8 +9685,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
-      <c r="A262" s="1" t="n">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A262" s="1">
         <v>260</v>
       </c>
       <c r="B262" t="s">
@@ -9703,8 +9705,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
-      <c r="A263" s="1" t="n">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
         <v>261</v>
       </c>
       <c r="B263" t="s">
@@ -9723,8 +9725,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
-      <c r="A264" s="1" t="n">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
         <v>262</v>
       </c>
       <c r="B264" t="s">
@@ -9740,11 +9742,11 @@
         <v>899</v>
       </c>
       <c r="F264" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6">
-      <c r="A265" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
         <v>263</v>
       </c>
       <c r="B265" t="s">
@@ -9760,11 +9762,11 @@
         <v>903</v>
       </c>
       <c r="F265" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6">
-      <c r="A266" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
         <v>264</v>
       </c>
       <c r="B266" t="s">
@@ -9783,8 +9785,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
-      <c r="A267" s="1" t="n">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
         <v>265</v>
       </c>
       <c r="B267" t="s">
@@ -9803,8 +9805,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
-      <c r="A268" s="1" t="n">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A268" s="1">
         <v>266</v>
       </c>
       <c r="B268" t="s">
@@ -9820,11 +9822,11 @@
         <v>699</v>
       </c>
       <c r="F268" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6">
-      <c r="A269" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A269" s="1">
         <v>267</v>
       </c>
       <c r="B269" t="s">
@@ -9840,11 +9842,11 @@
         <v>915</v>
       </c>
       <c r="F269" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6">
-      <c r="A270" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A270" s="1">
         <v>268</v>
       </c>
       <c r="B270" t="s">
@@ -9860,11 +9862,11 @@
         <v>919</v>
       </c>
       <c r="F270" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6">
-      <c r="A271" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A271" s="1">
         <v>269</v>
       </c>
       <c r="B271" t="s">
@@ -9883,8 +9885,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
-      <c r="A272" s="1" t="n">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A272" s="1">
         <v>270</v>
       </c>
       <c r="B272" t="s">
@@ -9903,8 +9905,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
-      <c r="A273" s="1" t="n">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A273" s="1">
         <v>271</v>
       </c>
       <c r="B273" t="s">
@@ -9923,8 +9925,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
-      <c r="A274" s="1" t="n">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A274" s="1">
         <v>272</v>
       </c>
       <c r="B274" t="s">
@@ -9943,8 +9945,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
-      <c r="A275" s="1" t="n">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A275" s="1">
         <v>273</v>
       </c>
       <c r="B275" t="s">
@@ -9963,8 +9965,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
-      <c r="A276" s="1" t="n">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A276" s="1">
         <v>274</v>
       </c>
       <c r="B276" t="s">
@@ -9983,8 +9985,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
-      <c r="A277" s="1" t="n">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A277" s="1">
         <v>275</v>
       </c>
       <c r="B277" t="s">
@@ -10000,11 +10002,11 @@
         <v>941</v>
       </c>
       <c r="F277" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6">
-      <c r="A278" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A278" s="1">
         <v>276</v>
       </c>
       <c r="B278" t="s">
@@ -10023,8 +10025,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
-      <c r="A279" s="1" t="n">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A279" s="1">
         <v>277</v>
       </c>
       <c r="B279" t="s">
@@ -10043,8 +10045,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
-      <c r="A280" s="1" t="n">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A280" s="1">
         <v>278</v>
       </c>
       <c r="B280" t="s">
@@ -10063,8 +10065,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
-      <c r="A281" s="1" t="n">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A281" s="1">
         <v>279</v>
       </c>
       <c r="B281" t="s">
@@ -10083,8 +10085,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
-      <c r="A282" s="1" t="n">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A282" s="1">
         <v>280</v>
       </c>
       <c r="B282" t="s">
@@ -10103,8 +10105,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
-      <c r="A283" s="1" t="n">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A283" s="1">
         <v>281</v>
       </c>
       <c r="B283" t="s">
@@ -10123,8 +10125,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
-      <c r="A284" s="1" t="n">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A284" s="1">
         <v>282</v>
       </c>
       <c r="B284" t="s">
@@ -10143,8 +10145,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
-      <c r="A285" s="1" t="n">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A285" s="1">
         <v>283</v>
       </c>
       <c r="B285" t="s">
@@ -10163,8 +10165,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
-      <c r="A286" s="1" t="n">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A286" s="1">
         <v>284</v>
       </c>
       <c r="B286" t="s">
@@ -10173,7 +10175,6 @@
       <c r="C286" t="s">
         <v>969</v>
       </c>
-      <c r="D286" t="s"/>
       <c r="E286" t="s">
         <v>970</v>
       </c>
@@ -10181,8 +10182,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
-      <c r="A287" s="1" t="n">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A287" s="1">
         <v>285</v>
       </c>
       <c r="B287" t="s">
@@ -10201,8 +10202,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
-      <c r="A288" s="1" t="n">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A288" s="1">
         <v>286</v>
       </c>
       <c r="B288" t="s">
@@ -10221,8 +10222,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
-      <c r="A289" s="1" t="n">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A289" s="1">
         <v>287</v>
       </c>
       <c r="B289" t="s">
@@ -10241,8 +10242,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
-      <c r="A290" s="1" t="n">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A290" s="1">
         <v>288</v>
       </c>
       <c r="B290" t="s">
@@ -10261,8 +10262,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
-      <c r="A291" s="1" t="n">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A291" s="1">
         <v>289</v>
       </c>
       <c r="B291" t="s">
@@ -10281,8 +10282,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
-      <c r="A292" s="1" t="n">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A292" s="1">
         <v>290</v>
       </c>
       <c r="B292" t="s">
@@ -10301,8 +10302,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
-      <c r="A293" s="1" t="n">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A293" s="1">
         <v>291</v>
       </c>
       <c r="B293" t="s">
@@ -10321,8 +10322,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
-      <c r="A294" s="1" t="n">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A294" s="1">
         <v>292</v>
       </c>
       <c r="B294" t="s">
@@ -10341,8 +10342,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
-      <c r="A295" s="1" t="n">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A295" s="1">
         <v>293</v>
       </c>
       <c r="B295" t="s">
@@ -10361,8 +10362,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
-      <c r="A296" s="1" t="n">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A296" s="1">
         <v>294</v>
       </c>
       <c r="B296" t="s">
@@ -10381,8 +10382,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
-      <c r="A297" s="1" t="n">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A297" s="1">
         <v>295</v>
       </c>
       <c r="B297" t="s">
@@ -10401,8 +10402,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
-      <c r="A298" s="1" t="n">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A298" s="1">
         <v>296</v>
       </c>
       <c r="B298" t="s">
@@ -10421,8 +10422,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
-      <c r="A299" s="1" t="n">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A299" s="1">
         <v>297</v>
       </c>
       <c r="B299" t="s">
@@ -10441,8 +10442,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
-      <c r="A300" s="1" t="n">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A300" s="1">
         <v>298</v>
       </c>
       <c r="B300" t="s">
@@ -10461,8 +10462,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
-      <c r="A301" s="1" t="n">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A301" s="1">
         <v>299</v>
       </c>
       <c r="B301" t="s">
@@ -10478,11 +10479,11 @@
         <v>187</v>
       </c>
       <c r="F301" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6">
-      <c r="A302" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A302" s="1">
         <v>300</v>
       </c>
       <c r="B302" t="s">
@@ -10501,8 +10502,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
-      <c r="A303" s="1" t="n">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A303" s="1">
         <v>301</v>
       </c>
       <c r="B303" t="s">
@@ -10518,11 +10519,11 @@
         <v>1029</v>
       </c>
       <c r="F303" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6">
-      <c r="A304" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A304" s="1">
         <v>302</v>
       </c>
       <c r="B304" t="s">
@@ -10541,8 +10542,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
-      <c r="A305" s="1" t="n">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A305" s="1">
         <v>303</v>
       </c>
       <c r="B305" t="s">
@@ -10561,8 +10562,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
-      <c r="A306" s="1" t="n">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A306" s="1">
         <v>304</v>
       </c>
       <c r="B306" t="s">
@@ -10581,8 +10582,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
-      <c r="A307" s="1" t="n">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A307" s="1">
         <v>305</v>
       </c>
       <c r="B307" t="s">
@@ -10601,8 +10602,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
-      <c r="A308" s="1" t="n">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A308" s="1">
         <v>306</v>
       </c>
       <c r="B308" t="s">
@@ -10621,8 +10622,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
-      <c r="A309" s="1" t="n">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A309" s="1">
         <v>307</v>
       </c>
       <c r="B309" t="s">
@@ -10641,8 +10642,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
-      <c r="A310" s="1" t="n">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A310" s="1">
         <v>308</v>
       </c>
       <c r="B310" t="s">
@@ -10661,8 +10662,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
-      <c r="A311" s="1" t="n">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A311" s="1">
         <v>309</v>
       </c>
       <c r="B311" t="s">
@@ -10678,11 +10679,11 @@
         <v>1053</v>
       </c>
       <c r="F311" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6">
-      <c r="A312" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A312" s="1">
         <v>310</v>
       </c>
       <c r="B312" t="s">
@@ -10691,7 +10692,6 @@
       <c r="C312" t="s">
         <v>1051</v>
       </c>
-      <c r="D312" t="s"/>
       <c r="E312" t="s">
         <v>1055</v>
       </c>
@@ -10699,8 +10699,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
-      <c r="A313" s="1" t="n">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A313" s="1">
         <v>311</v>
       </c>
       <c r="B313" t="s">
@@ -10719,8 +10719,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
-      <c r="A314" s="1" t="n">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A314" s="1">
         <v>312</v>
       </c>
       <c r="B314" t="s">
@@ -10739,8 +10739,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
-      <c r="A315" s="1" t="n">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A315" s="1">
         <v>313</v>
       </c>
       <c r="B315" t="s">
@@ -10759,8 +10759,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
-      <c r="A316" s="1" t="n">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A316" s="1">
         <v>314</v>
       </c>
       <c r="B316" t="s">
@@ -10779,8 +10779,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
-      <c r="A317" s="1" t="n">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A317" s="1">
         <v>315</v>
       </c>
       <c r="B317" t="s">
@@ -10796,11 +10796,11 @@
         <v>1070</v>
       </c>
       <c r="F317" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6">
-      <c r="A318" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A318" s="1">
         <v>316</v>
       </c>
       <c r="B318" t="s">
@@ -10819,8 +10819,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="319" spans="1:6">
-      <c r="A319" s="1" t="n">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A319" s="1">
         <v>317</v>
       </c>
       <c r="B319" t="s">
@@ -10839,8 +10839,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="320" spans="1:6">
-      <c r="A320" s="1" t="n">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A320" s="1">
         <v>318</v>
       </c>
       <c r="B320" t="s">
@@ -10859,8 +10859,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="321" spans="1:6">
-      <c r="A321" s="1" t="n">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A321" s="1">
         <v>319</v>
       </c>
       <c r="B321" t="s">
@@ -10876,11 +10876,11 @@
         <v>213</v>
       </c>
       <c r="F321" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6">
-      <c r="A322" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A322" s="1">
         <v>320</v>
       </c>
       <c r="B322" t="s">
@@ -10889,7 +10889,6 @@
       <c r="C322" t="s">
         <v>1083</v>
       </c>
-      <c r="D322" t="s"/>
       <c r="E322" t="s">
         <v>1084</v>
       </c>
@@ -10897,8 +10896,8 @@
         <v>478</v>
       </c>
     </row>
-    <row r="323" spans="1:6">
-      <c r="A323" s="1" t="n">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A323" s="1">
         <v>321</v>
       </c>
       <c r="B323" t="s">
@@ -10917,8 +10916,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="324" spans="1:6">
-      <c r="A324" s="1" t="n">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A324" s="1">
         <v>322</v>
       </c>
       <c r="B324" t="s">
@@ -10937,8 +10936,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="325" spans="1:6">
-      <c r="A325" s="1" t="n">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A325" s="1">
         <v>323</v>
       </c>
       <c r="B325" t="s">
@@ -10957,8 +10956,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="326" spans="1:6">
-      <c r="A326" s="1" t="n">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A326" s="1">
         <v>324</v>
       </c>
       <c r="B326" t="s">
@@ -10977,8 +10976,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="327" spans="1:6">
-      <c r="A327" s="1" t="n">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A327" s="1">
         <v>325</v>
       </c>
       <c r="B327" t="s">
@@ -10997,8 +10996,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="328" spans="1:6">
-      <c r="A328" s="1" t="n">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A328" s="1">
         <v>326</v>
       </c>
       <c r="B328" t="s">
@@ -11017,8 +11016,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="329" spans="1:6">
-      <c r="A329" s="1" t="n">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A329" s="1">
         <v>327</v>
       </c>
       <c r="B329" t="s">
@@ -11037,8 +11036,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="330" spans="1:6">
-      <c r="A330" s="1" t="n">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A330" s="1">
         <v>328</v>
       </c>
       <c r="B330" t="s">
@@ -11057,8 +11056,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="331" spans="1:6">
-      <c r="A331" s="1" t="n">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A331" s="1">
         <v>329</v>
       </c>
       <c r="B331" t="s">
@@ -11077,8 +11076,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="332" spans="1:6">
-      <c r="A332" s="1" t="n">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A332" s="1">
         <v>330</v>
       </c>
       <c r="B332" t="s">
@@ -11097,8 +11096,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="333" spans="1:6">
-      <c r="A333" s="1" t="n">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A333" s="1">
         <v>331</v>
       </c>
       <c r="B333" t="s">
@@ -11117,8 +11116,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="334" spans="1:6">
-      <c r="A334" s="1" t="n">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A334" s="1">
         <v>332</v>
       </c>
       <c r="B334" t="s">
@@ -11137,8 +11136,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="335" spans="1:6">
-      <c r="A335" s="1" t="n">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A335" s="1">
         <v>333</v>
       </c>
       <c r="B335" t="s">
@@ -11157,8 +11156,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="336" spans="1:6">
-      <c r="A336" s="1" t="n">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A336" s="1">
         <v>334</v>
       </c>
       <c r="B336" t="s">
@@ -11177,8 +11176,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="337" spans="1:6">
-      <c r="A337" s="1" t="n">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A337" s="1">
         <v>335</v>
       </c>
       <c r="B337" t="s">
@@ -11197,8 +11196,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
-      <c r="A338" s="1" t="n">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A338" s="1">
         <v>336</v>
       </c>
       <c r="B338" t="s">
@@ -11217,8 +11216,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
-      <c r="A339" s="1" t="n">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A339" s="1">
         <v>337</v>
       </c>
       <c r="B339" t="s">
@@ -11237,8 +11236,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="340" spans="1:6">
-      <c r="A340" s="1" t="n">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A340" s="1">
         <v>338</v>
       </c>
       <c r="B340" t="s">
@@ -11257,8 +11256,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="341" spans="1:6">
-      <c r="A341" s="1" t="n">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A341" s="1">
         <v>339</v>
       </c>
       <c r="B341" t="s">
@@ -11277,8 +11276,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="342" spans="1:6">
-      <c r="A342" s="1" t="n">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A342" s="1">
         <v>340</v>
       </c>
       <c r="B342" t="s">
@@ -11297,8 +11296,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="343" spans="1:6">
-      <c r="A343" s="1" t="n">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A343" s="1">
         <v>341</v>
       </c>
       <c r="B343" t="s">
@@ -11317,8 +11316,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="344" spans="1:6">
-      <c r="A344" s="1" t="n">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A344" s="1">
         <v>342</v>
       </c>
       <c r="B344" t="s">
@@ -11337,8 +11336,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="345" spans="1:6">
-      <c r="A345" s="1" t="n">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A345" s="1">
         <v>343</v>
       </c>
       <c r="B345" t="s">
@@ -11357,8 +11356,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="346" spans="1:6">
-      <c r="A346" s="1" t="n">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A346" s="1">
         <v>344</v>
       </c>
       <c r="B346" t="s">
@@ -11367,7 +11366,6 @@
       <c r="C346" t="s">
         <v>1156</v>
       </c>
-      <c r="D346" t="s"/>
       <c r="E346" t="s">
         <v>1157</v>
       </c>
@@ -11375,8 +11373,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="347" spans="1:6">
-      <c r="A347" s="1" t="n">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A347" s="1">
         <v>345</v>
       </c>
       <c r="B347" t="s">
@@ -11392,11 +11390,11 @@
         <v>1161</v>
       </c>
       <c r="F347" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6">
-      <c r="A348" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A348" s="1">
         <v>346</v>
       </c>
       <c r="B348" t="s">
@@ -11415,8 +11413,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="349" spans="1:6">
-      <c r="A349" s="1" t="n">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A349" s="1">
         <v>347</v>
       </c>
       <c r="B349" t="s">
@@ -11435,8 +11433,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="350" spans="1:6">
-      <c r="A350" s="1" t="n">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A350" s="1">
         <v>348</v>
       </c>
       <c r="B350" t="s">
@@ -11455,8 +11453,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="351" spans="1:6">
-      <c r="A351" s="1" t="n">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A351" s="1">
         <v>349</v>
       </c>
       <c r="B351" t="s">
@@ -11475,8 +11473,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="352" spans="1:6">
-      <c r="A352" s="1" t="n">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A352" s="1">
         <v>350</v>
       </c>
       <c r="B352" t="s">
@@ -11495,8 +11493,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="353" spans="1:6">
-      <c r="A353" s="1" t="n">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A353" s="1">
         <v>351</v>
       </c>
       <c r="B353" t="s">
@@ -11515,8 +11513,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="354" spans="1:6">
-      <c r="A354" s="1" t="n">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A354" s="1">
         <v>352</v>
       </c>
       <c r="B354" t="s">
@@ -11535,8 +11533,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="355" spans="1:6">
-      <c r="A355" s="1" t="n">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A355" s="1">
         <v>353</v>
       </c>
       <c r="B355" t="s">
@@ -11555,8 +11553,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="356" spans="1:6">
-      <c r="A356" s="1" t="n">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A356" s="1">
         <v>354</v>
       </c>
       <c r="B356" t="s">
@@ -11575,8 +11573,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="357" spans="1:6">
-      <c r="A357" s="1" t="n">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A357" s="1">
         <v>355</v>
       </c>
       <c r="B357" t="s">
@@ -11595,8 +11593,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="358" spans="1:6">
-      <c r="A358" s="1" t="n">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A358" s="1">
         <v>356</v>
       </c>
       <c r="B358" t="s">
@@ -11615,8 +11613,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="359" spans="1:6">
-      <c r="A359" s="1" t="n">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A359" s="1">
         <v>357</v>
       </c>
       <c r="B359" t="s">
@@ -11625,7 +11623,6 @@
       <c r="C359" t="s">
         <v>1193</v>
       </c>
-      <c r="D359" t="s"/>
       <c r="E359" t="s">
         <v>1194</v>
       </c>
@@ -11633,8 +11630,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="360" spans="1:6">
-      <c r="A360" s="1" t="n">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A360" s="1">
         <v>358</v>
       </c>
       <c r="B360" t="s">
@@ -11643,7 +11640,6 @@
       <c r="C360" t="s">
         <v>1196</v>
       </c>
-      <c r="D360" t="s"/>
       <c r="E360" t="s">
         <v>1197</v>
       </c>
@@ -11651,8 +11647,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="361" spans="1:6">
-      <c r="A361" s="1" t="n">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A361" s="1">
         <v>359</v>
       </c>
       <c r="B361" t="s">
@@ -11671,8 +11667,8 @@
         <v>478</v>
       </c>
     </row>
-    <row r="362" spans="1:6">
-      <c r="A362" s="1" t="n">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A362" s="1">
         <v>360</v>
       </c>
       <c r="B362" t="s">
@@ -11691,8 +11687,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="363" spans="1:6">
-      <c r="A363" s="1" t="n">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A363" s="1">
         <v>361</v>
       </c>
       <c r="B363" t="s">
@@ -11711,8 +11707,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="364" spans="1:6">
-      <c r="A364" s="1" t="n">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A364" s="1">
         <v>362</v>
       </c>
       <c r="B364" t="s">
@@ -11731,8 +11727,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="365" spans="1:6">
-      <c r="A365" s="1" t="n">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A365" s="1">
         <v>363</v>
       </c>
       <c r="B365" t="s">
@@ -11751,8 +11747,8 @@
         <v>313</v>
       </c>
     </row>
-    <row r="366" spans="1:6">
-      <c r="A366" s="1" t="n">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A366" s="1">
         <v>364</v>
       </c>
       <c r="B366" t="s">
@@ -11771,8 +11767,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="367" spans="1:6">
-      <c r="A367" s="1" t="n">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A367" s="1">
         <v>365</v>
       </c>
       <c r="B367" t="s">
@@ -11791,8 +11787,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="368" spans="1:6">
-      <c r="A368" s="1" t="n">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A368" s="1">
         <v>366</v>
       </c>
       <c r="B368" t="s">
@@ -11811,8 +11807,8 @@
         <v>193</v>
       </c>
     </row>
-    <row r="369" spans="1:6">
-      <c r="A369" s="1" t="n">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A369" s="1">
         <v>367</v>
       </c>
       <c r="B369" t="s">
@@ -11831,8 +11827,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="370" spans="1:6">
-      <c r="A370" s="1" t="n">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A370" s="1">
         <v>368</v>
       </c>
       <c r="B370" t="s">
@@ -11851,8 +11847,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="371" spans="1:6">
-      <c r="A371" s="1" t="n">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A371" s="1">
         <v>369</v>
       </c>
       <c r="B371" t="s">
@@ -11861,7 +11857,6 @@
       <c r="C371" t="s">
         <v>1225</v>
       </c>
-      <c r="D371" t="s"/>
       <c r="E371" t="s">
         <v>1229</v>
       </c>
@@ -11869,8 +11864,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="372" spans="1:6">
-      <c r="A372" s="1" t="n">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A372" s="1">
         <v>370</v>
       </c>
       <c r="B372" t="s">
@@ -11889,8 +11884,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="373" spans="1:6">
-      <c r="A373" s="1" t="n">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A373" s="1">
         <v>371</v>
       </c>
       <c r="B373" t="s">
@@ -11909,8 +11904,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="374" spans="1:6">
-      <c r="A374" s="1" t="n">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A374" s="1">
         <v>372</v>
       </c>
       <c r="B374" t="s">
@@ -11929,8 +11924,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="375" spans="1:6">
-      <c r="A375" s="1" t="n">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A375" s="1">
         <v>373</v>
       </c>
       <c r="B375" t="s">
@@ -11949,8 +11944,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="376" spans="1:6">
-      <c r="A376" s="1" t="n">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A376" s="1">
         <v>374</v>
       </c>
       <c r="B376" t="s">
@@ -11969,8 +11964,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="377" spans="1:6">
-      <c r="A377" s="1" t="n">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A377" s="1">
         <v>375</v>
       </c>
       <c r="B377" t="s">
@@ -11989,8 +11984,8 @@
         <v>313</v>
       </c>
     </row>
-    <row r="378" spans="1:6">
-      <c r="A378" s="1" t="n">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A378" s="1">
         <v>376</v>
       </c>
       <c r="B378" t="s">
@@ -12009,8 +12004,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="379" spans="1:6">
-      <c r="A379" s="1" t="n">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A379" s="1">
         <v>377</v>
       </c>
       <c r="B379" t="s">
@@ -12029,8 +12024,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="380" spans="1:6">
-      <c r="A380" s="1" t="n">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A380" s="1">
         <v>378</v>
       </c>
       <c r="B380" t="s">
@@ -12049,8 +12044,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="381" spans="1:6">
-      <c r="A381" s="1" t="n">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A381" s="1">
         <v>379</v>
       </c>
       <c r="B381" t="s">
@@ -12069,8 +12064,8 @@
         <v>313</v>
       </c>
     </row>
-    <row r="382" spans="1:6">
-      <c r="A382" s="1" t="n">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A382" s="1">
         <v>380</v>
       </c>
       <c r="B382" t="s">
@@ -12089,8 +12084,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="383" spans="1:6">
-      <c r="A383" s="1" t="n">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A383" s="1">
         <v>381</v>
       </c>
       <c r="B383" t="s">
@@ -12109,8 +12104,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="384" spans="1:6">
-      <c r="A384" s="1" t="n">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A384" s="1">
         <v>382</v>
       </c>
       <c r="B384" t="s">
@@ -12129,8 +12124,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="385" spans="1:6">
-      <c r="A385" s="1" t="n">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A385" s="1">
         <v>383</v>
       </c>
       <c r="B385" t="s">
@@ -12149,8 +12144,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="386" spans="1:6">
-      <c r="A386" s="1" t="n">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A386" s="1">
         <v>384</v>
       </c>
       <c r="B386" t="s">
@@ -12169,8 +12164,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="387" spans="1:6">
-      <c r="A387" s="1" t="n">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A387" s="1">
         <v>385</v>
       </c>
       <c r="B387" t="s">
@@ -12189,8 +12184,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="388" spans="1:6">
-      <c r="A388" s="1" t="n">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A388" s="1">
         <v>386</v>
       </c>
       <c r="B388" t="s">
@@ -12209,8 +12204,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="389" spans="1:6">
-      <c r="A389" s="1" t="n">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A389" s="1">
         <v>387</v>
       </c>
       <c r="B389" t="s">
@@ -12229,8 +12224,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="390" spans="1:6">
-      <c r="A390" s="1" t="n">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A390" s="1">
         <v>388</v>
       </c>
       <c r="B390" t="s">
@@ -12249,8 +12244,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="391" spans="1:6">
-      <c r="A391" s="1" t="n">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A391" s="1">
         <v>389</v>
       </c>
       <c r="B391" t="s">
@@ -12269,8 +12264,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="392" spans="1:6">
-      <c r="A392" s="1" t="n">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A392" s="1">
         <v>390</v>
       </c>
       <c r="B392" t="s">
@@ -12289,8 +12284,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="393" spans="1:6">
-      <c r="A393" s="1" t="n">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A393" s="1">
         <v>391</v>
       </c>
       <c r="B393" t="s">
@@ -12309,8 +12304,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="394" spans="1:6">
-      <c r="A394" s="1" t="n">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A394" s="1">
         <v>392</v>
       </c>
       <c r="B394" t="s">
@@ -12319,7 +12314,6 @@
       <c r="C394" t="s">
         <v>1292</v>
       </c>
-      <c r="D394" t="s"/>
       <c r="E394" t="s">
         <v>1293</v>
       </c>
@@ -12327,8 +12321,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="395" spans="1:6">
-      <c r="A395" s="1" t="n">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A395" s="1">
         <v>393</v>
       </c>
       <c r="B395" t="s">
@@ -12347,8 +12341,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="396" spans="1:6">
-      <c r="A396" s="1" t="n">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A396" s="1">
         <v>394</v>
       </c>
       <c r="B396" t="s">
@@ -12367,8 +12361,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="397" spans="1:6">
-      <c r="A397" s="1" t="n">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A397" s="1">
         <v>395</v>
       </c>
       <c r="B397" t="s">
@@ -12387,8 +12381,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="398" spans="1:6">
-      <c r="A398" s="1" t="n">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A398" s="1">
         <v>396</v>
       </c>
       <c r="B398" t="s">
@@ -12407,8 +12401,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="399" spans="1:6">
-      <c r="A399" s="1" t="n">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A399" s="1">
         <v>397</v>
       </c>
       <c r="B399" t="s">
@@ -12427,8 +12421,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="400" spans="1:6">
-      <c r="A400" s="1" t="n">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A400" s="1">
         <v>398</v>
       </c>
       <c r="B400" t="s">
@@ -12447,8 +12441,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="401" spans="1:6">
-      <c r="A401" s="1" t="n">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A401" s="1">
         <v>399</v>
       </c>
       <c r="B401" t="s">
@@ -12467,8 +12461,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="402" spans="1:6">
-      <c r="A402" s="1" t="n">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A402" s="1">
         <v>400</v>
       </c>
       <c r="B402" t="s">
@@ -12487,8 +12481,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="403" spans="1:6">
-      <c r="A403" s="1" t="n">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A403" s="1">
         <v>401</v>
       </c>
       <c r="B403" t="s">
@@ -12500,13 +12494,12 @@
       <c r="D403" t="s">
         <v>1317</v>
       </c>
-      <c r="E403" t="s"/>
       <c r="F403" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="404" spans="1:6">
-      <c r="A404" s="1" t="n">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A404" s="1">
         <v>402</v>
       </c>
       <c r="B404" t="s">
@@ -12515,7 +12508,6 @@
       <c r="C404" t="s">
         <v>1318</v>
       </c>
-      <c r="D404" t="s"/>
       <c r="E404" t="s">
         <v>1319</v>
       </c>
@@ -12523,8 +12515,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="405" spans="1:6">
-      <c r="A405" s="1" t="n">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A405" s="1">
         <v>403</v>
       </c>
       <c r="B405" t="s">
@@ -12543,8 +12535,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="406" spans="1:6">
-      <c r="A406" s="1" t="n">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A406" s="1">
         <v>404</v>
       </c>
       <c r="B406" t="s">
@@ -12563,8 +12555,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="407" spans="1:6">
-      <c r="A407" s="1" t="n">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A407" s="1">
         <v>405</v>
       </c>
       <c r="B407" t="s">
@@ -12583,8 +12575,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="408" spans="1:6">
-      <c r="A408" s="1" t="n">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A408" s="1">
         <v>406</v>
       </c>
       <c r="B408" t="s">
@@ -12593,7 +12585,6 @@
       <c r="C408" t="s">
         <v>1330</v>
       </c>
-      <c r="D408" t="s"/>
       <c r="E408" t="s">
         <v>1331</v>
       </c>
@@ -12601,8 +12592,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="409" spans="1:6">
-      <c r="A409" s="1" t="n">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A409" s="1">
         <v>407</v>
       </c>
       <c r="B409" t="s">
@@ -12621,8 +12612,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="410" spans="1:6">
-      <c r="A410" s="1" t="n">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A410" s="1">
         <v>408</v>
       </c>
       <c r="B410" t="s">
@@ -12641,8 +12632,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="411" spans="1:6">
-      <c r="A411" s="1" t="n">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A411" s="1">
         <v>409</v>
       </c>
       <c r="B411" t="s">
@@ -12651,7 +12642,6 @@
       <c r="C411" t="s">
         <v>1338</v>
       </c>
-      <c r="D411" t="s"/>
       <c r="E411" t="s">
         <v>1339</v>
       </c>
@@ -12659,8 +12649,8 @@
         <v>478</v>
       </c>
     </row>
-    <row r="412" spans="1:6">
-      <c r="A412" s="1" t="n">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A412" s="1">
         <v>410</v>
       </c>
       <c r="B412" t="s">
@@ -12679,8 +12669,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="413" spans="1:6">
-      <c r="A413" s="1" t="n">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A413" s="1">
         <v>411</v>
       </c>
       <c r="B413" t="s">
@@ -12699,8 +12689,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="414" spans="1:6">
-      <c r="A414" s="1" t="n">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A414" s="1">
         <v>412</v>
       </c>
       <c r="B414" t="s">
@@ -12719,8 +12709,8 @@
         <v>478</v>
       </c>
     </row>
-    <row r="415" spans="1:6">
-      <c r="A415" s="1" t="n">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A415" s="1">
         <v>413</v>
       </c>
       <c r="B415" t="s">
@@ -12739,8 +12729,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="416" spans="1:6">
-      <c r="A416" s="1" t="n">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A416" s="1">
         <v>414</v>
       </c>
       <c r="B416" t="s">
@@ -12759,8 +12749,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="417" spans="1:6">
-      <c r="A417" s="1" t="n">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A417" s="1">
         <v>415</v>
       </c>
       <c r="B417" t="s">
@@ -12779,8 +12769,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="418" spans="1:6">
-      <c r="A418" s="1" t="n">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A418" s="1">
         <v>416</v>
       </c>
       <c r="B418" t="s">
@@ -12789,7 +12779,6 @@
       <c r="C418" t="s">
         <v>1358</v>
       </c>
-      <c r="D418" t="s"/>
       <c r="E418" t="s">
         <v>1359</v>
       </c>
@@ -12797,8 +12786,8 @@
         <v>478</v>
       </c>
     </row>
-    <row r="419" spans="1:6">
-      <c r="A419" s="1" t="n">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A419" s="1">
         <v>417</v>
       </c>
       <c r="B419" t="s">
@@ -12817,8 +12806,8 @@
         <v>478</v>
       </c>
     </row>
-    <row r="420" spans="1:6">
-      <c r="A420" s="1" t="n">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A420" s="1">
         <v>418</v>
       </c>
       <c r="B420" t="s">
@@ -12827,7 +12816,6 @@
       <c r="C420" t="s">
         <v>1365</v>
       </c>
-      <c r="D420" t="s"/>
       <c r="E420" t="s">
         <v>1366</v>
       </c>
@@ -12835,8 +12823,8 @@
         <v>478</v>
       </c>
     </row>
-    <row r="421" spans="1:6">
-      <c r="A421" s="1" t="n">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A421" s="1">
         <v>419</v>
       </c>
       <c r="B421" t="s">
@@ -12855,8 +12843,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="422" spans="1:6">
-      <c r="A422" s="1" t="n">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A422" s="1">
         <v>420</v>
       </c>
       <c r="B422" t="s">
@@ -12875,8 +12863,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="423" spans="1:6">
-      <c r="A423" s="1" t="n">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A423" s="1">
         <v>421</v>
       </c>
       <c r="B423" t="s">
@@ -12892,11 +12880,11 @@
         <v>753</v>
       </c>
       <c r="F423" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="424" spans="1:6">
-      <c r="A424" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A424" s="1">
         <v>422</v>
       </c>
       <c r="B424" t="s">
@@ -12916,6 +12904,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>